--- a/analytics/sandbox/notebooks/relative_wealth_index/result/rwi_median.xlsx
+++ b/analytics/sandbox/notebooks/relative_wealth_index/result/rwi_median.xlsx
@@ -468,10 +468,10 @@
         <v>-0.24</v>
       </c>
       <c r="D2" t="n">
-        <v>1798318</v>
+        <v>1760930</v>
       </c>
       <c r="E2" t="n">
-        <v>-431596.32</v>
+        <v>-422623.2</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="D3" t="n">
-        <v>1148776</v>
+        <v>1125458</v>
       </c>
       <c r="E3" t="n">
-        <v>-379096.08</v>
+        <v>-360146.56</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>-0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>1731786</v>
+        <v>1698440</v>
       </c>
       <c r="E4" t="n">
-        <v>-311721.48</v>
+        <v>-305719.2</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,10 @@
         <v>-0.37</v>
       </c>
       <c r="D5" t="n">
-        <v>801586</v>
+        <v>785420</v>
       </c>
       <c r="E5" t="n">
-        <v>-296586.82</v>
+        <v>-290605.4</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +544,10 @@
         <v>-0.28</v>
       </c>
       <c r="D6" t="n">
-        <v>978588</v>
+        <v>958237</v>
       </c>
       <c r="E6" t="n">
-        <v>-274004.64</v>
+        <v>-268306.36</v>
       </c>
     </row>
     <row r="7">
@@ -563,10 +563,10 @@
         <v>-0.17</v>
       </c>
       <c r="D7" t="n">
-        <v>1521958</v>
+        <v>1492035</v>
       </c>
       <c r="E7" t="n">
-        <v>-258732.86</v>
+        <v>-253645.95</v>
       </c>
     </row>
     <row r="8">
@@ -582,10 +582,10 @@
         <v>-0.19</v>
       </c>
       <c r="D8" t="n">
-        <v>1306643</v>
+        <v>1280068</v>
       </c>
       <c r="E8" t="n">
-        <v>-248262.17</v>
+        <v>-243212.92</v>
       </c>
     </row>
     <row r="9">
@@ -601,10 +601,10 @@
         <v>-0.23</v>
       </c>
       <c r="D9" t="n">
-        <v>1041126</v>
+        <v>1019827</v>
       </c>
       <c r="E9" t="n">
-        <v>-239458.98</v>
+        <v>-234560.21</v>
       </c>
     </row>
     <row r="10">
@@ -620,10 +620,10 @@
         <v>-0.22</v>
       </c>
       <c r="D10" t="n">
-        <v>1075245</v>
+        <v>1052843</v>
       </c>
       <c r="E10" t="n">
-        <v>-236553.9</v>
+        <v>-231625.46</v>
       </c>
     </row>
     <row r="11">
@@ -639,10 +639,10 @@
         <v>-0.35</v>
       </c>
       <c r="D11" t="n">
-        <v>672559</v>
+        <v>658808</v>
       </c>
       <c r="E11" t="n">
-        <v>-235395.65</v>
+        <v>-230582.8</v>
       </c>
     </row>
     <row r="12">
@@ -658,10 +658,10 @@
         <v>-0.29</v>
       </c>
       <c r="D12" t="n">
-        <v>748033</v>
+        <v>732489</v>
       </c>
       <c r="E12" t="n">
-        <v>-216929.57</v>
+        <v>-212421.81</v>
       </c>
     </row>
     <row r="13">
@@ -677,10 +677,10 @@
         <v>-0.27</v>
       </c>
       <c r="D13" t="n">
-        <v>799132</v>
+        <v>782482</v>
       </c>
       <c r="E13" t="n">
-        <v>-215765.64</v>
+        <v>-211270.14</v>
       </c>
     </row>
     <row r="14">
@@ -696,10 +696,10 @@
         <v>-0.38</v>
       </c>
       <c r="D14" t="n">
-        <v>565293</v>
+        <v>554015</v>
       </c>
       <c r="E14" t="n">
-        <v>-214811.34</v>
+        <v>-210525.7</v>
       </c>
     </row>
     <row r="15">
@@ -715,10 +715,10 @@
         <v>-0.19</v>
       </c>
       <c r="D15" t="n">
-        <v>1102750</v>
+        <v>1079774</v>
       </c>
       <c r="E15" t="n">
-        <v>-209522.5</v>
+        <v>-205157.06</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +734,10 @@
         <v>-0.18</v>
       </c>
       <c r="D16" t="n">
-        <v>1143672</v>
+        <v>1119900</v>
       </c>
       <c r="E16" t="n">
-        <v>-205860.96</v>
+        <v>-201582</v>
       </c>
     </row>
     <row r="17">
@@ -753,10 +753,10 @@
         <v>-0.28</v>
       </c>
       <c r="D17" t="n">
-        <v>679143</v>
+        <v>664994</v>
       </c>
       <c r="E17" t="n">
-        <v>-190160.04</v>
+        <v>-186198.32</v>
       </c>
     </row>
     <row r="18">
@@ -772,10 +772,10 @@
         <v>-0.25</v>
       </c>
       <c r="D18" t="n">
-        <v>745776</v>
+        <v>731160</v>
       </c>
       <c r="E18" t="n">
-        <v>-186444</v>
+        <v>-182790</v>
       </c>
     </row>
     <row r="19">
@@ -791,10 +791,10 @@
         <v>-0.21</v>
       </c>
       <c r="D19" t="n">
-        <v>861682</v>
+        <v>843729</v>
       </c>
       <c r="E19" t="n">
-        <v>-180953.22</v>
+        <v>-177183.09</v>
       </c>
     </row>
     <row r="20">
@@ -810,67 +810,67 @@
         <v>-0.26</v>
       </c>
       <c r="D20" t="n">
-        <v>676106</v>
+        <v>663088</v>
       </c>
       <c r="E20" t="n">
-        <v>-175787.56</v>
+        <v>-172402.88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Yadadri Bhuvanagiri</t>
+          <t>Jangoan</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.17</v>
+        <v>-0.23</v>
       </c>
       <c r="D21" t="n">
-        <v>797138</v>
+        <v>565701</v>
       </c>
       <c r="E21" t="n">
-        <v>-135513.46</v>
+        <v>-130111.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jangoan</t>
+          <t>Jayashankar Bhupalpally</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.23</v>
+        <v>-0.31</v>
       </c>
       <c r="D22" t="n">
-        <v>577738</v>
+        <v>414136</v>
       </c>
       <c r="E22" t="n">
-        <v>-132879.74</v>
+        <v>-128382.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jayashankar Bhupalpally</t>
+          <t>Yadadri Bhuvanagiri</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.31</v>
+        <v>-0.16</v>
       </c>
       <c r="D23" t="n">
-        <v>422769</v>
+        <v>780530</v>
       </c>
       <c r="E23" t="n">
-        <v>-131058.39</v>
+        <v>-124884.8</v>
       </c>
     </row>
     <row r="24">
@@ -886,10 +886,10 @@
         <v>-0.18</v>
       </c>
       <c r="D24" t="n">
-        <v>601661</v>
+        <v>589126</v>
       </c>
       <c r="E24" t="n">
-        <v>-108298.98</v>
+        <v>-106042.68</v>
       </c>
     </row>
     <row r="25">
@@ -905,10 +905,10 @@
         <v>-0.35</v>
       </c>
       <c r="D25" t="n">
-        <v>302705</v>
+        <v>296471</v>
       </c>
       <c r="E25" t="n">
-        <v>-105946.75</v>
+        <v>-103764.85</v>
       </c>
     </row>
     <row r="26">
@@ -924,10 +924,10 @@
         <v>-0.05</v>
       </c>
       <c r="D26" t="n">
-        <v>1711312</v>
+        <v>1676261</v>
       </c>
       <c r="E26" t="n">
-        <v>-85565.60000000001</v>
+        <v>-83813.05</v>
       </c>
     </row>
     <row r="27">
@@ -943,10 +943,10 @@
         <v>-0.08</v>
       </c>
       <c r="D27" t="n">
-        <v>829246</v>
+        <v>811969</v>
       </c>
       <c r="E27" t="n">
-        <v>-66339.68000000001</v>
+        <v>-64957.52</v>
       </c>
     </row>
     <row r="28">
@@ -962,10 +962,10 @@
         <v>-0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>1112060</v>
+        <v>1088890</v>
       </c>
       <c r="E28" t="n">
-        <v>-55603</v>
+        <v>-54444.5</v>
       </c>
     </row>
     <row r="29">
@@ -981,10 +981,10 @@
         <v>-0.06</v>
       </c>
       <c r="D29" t="n">
-        <v>914009</v>
+        <v>894966</v>
       </c>
       <c r="E29" t="n">
-        <v>-54840.54</v>
+        <v>-53697.96</v>
       </c>
     </row>
     <row r="30">
@@ -1000,10 +1000,10 @@
         <v>-0.04</v>
       </c>
       <c r="D30" t="n">
-        <v>1141340</v>
+        <v>1117561</v>
       </c>
       <c r="E30" t="n">
-        <v>-45653.6</v>
+        <v>-44702.44</v>
       </c>
     </row>
     <row r="31">
@@ -1019,10 +1019,10 @@
         <v>-0.03</v>
       </c>
       <c r="D31" t="n">
-        <v>1063029</v>
+        <v>1040881</v>
       </c>
       <c r="E31" t="n">
-        <v>-31890.87</v>
+        <v>-31226.43</v>
       </c>
     </row>
     <row r="32">
@@ -1038,10 +1038,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>3905988</v>
+        <v>3824609</v>
       </c>
       <c r="E32" t="n">
-        <v>273419.16</v>
+        <v>267722.63</v>
       </c>
     </row>
     <row r="33">
@@ -1057,10 +1057,10 @@
         <v>0.93</v>
       </c>
       <c r="D33" t="n">
-        <v>3968244</v>
+        <v>3885569</v>
       </c>
       <c r="E33" t="n">
-        <v>3690466.92</v>
+        <v>3613579.17</v>
       </c>
     </row>
     <row r="34">
@@ -1076,10 +1076,10 @@
         <v>1.42</v>
       </c>
       <c r="D34" t="n">
-        <v>3055220</v>
+        <v>2991566</v>
       </c>
       <c r="E34" t="n">
-        <v>4338412.399999999</v>
+        <v>4248023.72</v>
       </c>
     </row>
   </sheetData>
